--- a/calibration/docs/Normalization.xlsx
+++ b/calibration/docs/Normalization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +84,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,11 +135,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4760,7 +4801,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$E$1</c15:sqref>
@@ -4801,7 +4842,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$A$2:$A$30</c15:sqref>
@@ -4903,7 +4944,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$E$2:$E$30</c15:sqref>
@@ -5004,7 +5045,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0AAF-46D8-A385-89C046E2E940}"/>
                   </c:ext>
@@ -5017,7 +5058,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$F$1</c15:sqref>
@@ -5058,7 +5099,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$A$2:$A$30</c15:sqref>
@@ -5160,7 +5201,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$F$2:$F$30</c15:sqref>
@@ -5258,266 +5299,9 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0AAF-46D8-A385-89C046E2E940}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>init_valid!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Reliable</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>init_valid!$A$2:$A$30</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="29"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>29</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>init_valid!$G$2:$G$30</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="29"/>
-                      <c:pt idx="0">
-                        <c:v>70.181769545703787</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>66.265783716185126</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>74.344360492164554</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>57.590316711812015</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>44.071534744677585</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>78.489919471878096</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>71.219453905208823</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>71.286876812864037</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>93.192150575119456</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>85.42709201574003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>79.891084660092773</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>93.470357887396943</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>87.842507016060182</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>87.466237053923322</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>98.896897736057838</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>88.236773867983445</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>94.354995076899129</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>97.154921855819339</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>96.068404284510862</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>97.981745040363791</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>96.974476502095882</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>95.757257690124078</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>93.760924279007725</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>97.163044813872276</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>93.914557552113664</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>99.151124396385455</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>98.494163470740261</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>96.156295277212948</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>92.59887190001821</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-0AAF-46D8-A385-89C046E2E940}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5528,6 +5312,234 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>init_valid!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reliable</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>init_valid!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>init_valid!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>70.181769545703787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.265783716185126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.344360492164554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.590316711812015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.071534744677585</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.489919471878096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.219453905208823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.286876812864037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.192150575119456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.42709201574003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.891084660092773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.470357887396943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.842507016060182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.466237053923322</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.896897736057838</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.236773867983445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.354995076899129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.154921855819339</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.068404284510862</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.981745040363791</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96.974476502095882</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95.757257690124078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93.760924279007725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.163044813872276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93.914557552113664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99.151124396385455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.494163470740261</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.156295277212948</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.59887190001821</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0AAF-46D8-A385-89C046E2E940}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
@@ -6206,6 +6218,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="303968480"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7064,7 +7077,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$C$1</c15:sqref>
@@ -7105,7 +7118,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$A$2:$A$30</c15:sqref>
@@ -7207,7 +7220,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$C$2:$C$30</c15:sqref>
@@ -7308,7 +7321,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-34E8-4F58-8DBA-FFBA507C8301}"/>
                   </c:ext>
@@ -7321,7 +7334,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$F$1</c15:sqref>
@@ -7362,7 +7375,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$A$2:$A$30</c15:sqref>
@@ -7464,7 +7477,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$F$2:$F$30</c15:sqref>
@@ -7562,7 +7575,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-34E8-4F58-8DBA-FFBA507C8301}"/>
                   </c:ext>
@@ -7575,7 +7588,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$G$1</c15:sqref>
@@ -7616,7 +7629,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$A$2:$A$30</c15:sqref>
@@ -7718,7 +7731,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$G$2:$G$30</c15:sqref>
@@ -7819,7 +7832,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-34E8-4F58-8DBA-FFBA507C8301}"/>
                   </c:ext>
@@ -7832,7 +7845,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$H$1</c15:sqref>
@@ -7879,7 +7892,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$A$2:$A$30</c15:sqref>
@@ -7981,7 +7994,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>init_valid!$H$2:$H$30</c15:sqref>
@@ -8082,7 +8095,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-34E8-4F58-8DBA-FFBA507C8301}"/>
                   </c:ext>
@@ -8522,6 +8535,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="488145112"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -13194,35 +13208,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -13231,30 +13247,30 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10.001696699750951</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="13">
         <f>SUM(B2:B2)/COUNT(B2:B2)</f>
         <v>10.001696699750951</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="14"/>
       <c r="Y2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
@@ -13262,27 +13278,27 @@
       <c r="B3" s="3">
         <v>10.0170849987359</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <f>SUM(B2:B3)/COUNT(B2:B3)</f>
         <v>10.009390849243426</v>
       </c>
       <c r="D3" s="3">
-        <f>ABS( C3-B3 )</f>
+        <f t="shared" ref="D3:D41" si="0">ABS( C3-B3 )</f>
         <v>7.694149492474267E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <f>SUM(D3:D3)/COUNT(D3:D3)</f>
         <v>7.694149492474267E-3</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F30" si="0">ABS(C3-C2)</f>
+        <f>ABS(C3-C2)</f>
         <v>7.694149492474267E-3</v>
       </c>
       <c r="G3" s="3">
         <f>100-F3/E3*100</f>
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <f>SUM(G3:G3)/COUNT(G3:G3)</f>
         <v>0</v>
       </c>
@@ -13292,10 +13308,10 @@
       </c>
       <c r="Y3" s="3">
         <f ca="1">RAND()*(10 - 10.05) + 10.05</f>
-        <v>10.017286347513894</v>
+        <v>10.042883378581367</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A41" si="2">A3+1</f>
         <v>3</v>
@@ -13303,27 +13319,27 @@
       <c r="B4">
         <v>10.016741442368909</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f>SUM(B2:B4)/COUNT(B2:B4)</f>
         <v>10.01184104695192</v>
       </c>
       <c r="D4">
-        <f>ABS( C4-B4 )</f>
+        <f t="shared" si="0"/>
         <v>4.9003954169890562E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f>SUM(D3:D4)/COUNT(D3:D4)</f>
         <v>6.2972724547316616E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F30" si="3">ABS(C4-C3)</f>
         <v>2.4501977084945281E-3</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G30" si="3">100-F4/E4*100</f>
+        <f t="shared" ref="G4:G30" si="4">100-F4/E4*100</f>
         <v>61.091127530086588</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <f>SUM(G3:G4)/COUNT(G3:G4)</f>
         <v>30.545563765043294</v>
       </c>
@@ -13332,7 +13348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -13340,27 +13356,27 @@
       <c r="B5">
         <v>10.005779469394666</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f>SUM(B2:B5)/COUNT(B2:B5)</f>
         <v>10.010325652562607</v>
       </c>
       <c r="D5">
-        <f>ABS( C5-B5 )</f>
+        <f t="shared" si="0"/>
         <v>4.5461831679407538E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f>SUM(D3:D5)/COUNT(D3:D5)</f>
         <v>5.713576025801359E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5153943893135846E-3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73.47730418794869</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <f>SUM(G3:G5)/COUNT(G3:G5)</f>
         <v>44.856143906011759</v>
       </c>
@@ -13369,7 +13385,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -13377,27 +13393,27 @@
       <c r="B6">
         <v>10.031961797720967</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f>SUM(B2:B6)/COUNT(B2:B6)</f>
         <v>10.014652881594278</v>
       </c>
       <c r="D6">
-        <f>ABS( C6-B6 )</f>
+        <f t="shared" si="0"/>
         <v>1.7308916126689056E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <f>SUM(D3:D6)/COUNT(D3:D6)</f>
         <v>8.6124110510232832E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3272290316718198E-3</v>
       </c>
       <c r="G6">
         <f>100-F6/E6*100</f>
         <v>49.755892908087795</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f>SUM(G3:G6)/COUNT(G3:G6)</f>
         <v>46.081081156530765</v>
       </c>
@@ -13406,7 +13422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -13414,27 +13430,27 @@
       <c r="B7">
         <v>10.025132432463733</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f>SUM(B2:B7)/COUNT(B2:B7)</f>
         <v>10.016399473405855</v>
       </c>
       <c r="D7">
-        <f>ABS( C7-B7 )</f>
+        <f t="shared" si="0"/>
         <v>8.7329590578786309E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f>SUM(D3:D7)/COUNT(D3:D7)</f>
         <v>8.636520652394352E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7465918115764367E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79.776673015976414</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <f>SUM(G3:G7)/COUNT(G3:G7)</f>
         <v>52.820199528419892</v>
       </c>
@@ -13443,7 +13459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -13451,27 +13467,27 @@
       <c r="B8">
         <v>10.004903101432923</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f>SUM(B2:B8)/COUNT(B2:B8)</f>
         <v>10.014757134552578</v>
       </c>
       <c r="D8">
-        <f>ABS( C8-B8 )</f>
+        <f t="shared" si="0"/>
         <v>9.85403311965527E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <f>SUM(D3:D8)/COUNT(D3:D8)</f>
         <v>8.8394393969378395E-3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6423388532764704E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81.420327924354453</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <f>SUM(G3:G8)/COUNT(G3:G8)</f>
         <v>57.586887594408985</v>
       </c>
@@ -13480,7 +13496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -13488,27 +13504,27 @@
       <c r="B9">
         <v>10.049362624538325</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f>SUM(B2:B9)/COUNT(B2:B9)</f>
         <v>10.019082820800797</v>
       </c>
       <c r="D9">
-        <f>ABS( C9-B9 )</f>
+        <f t="shared" si="0"/>
         <v>3.0279803737528255E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f>SUM(D3:D9)/COUNT(D3:D9)</f>
         <v>1.1902348588450755E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3256862482188296E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63.656868087226187</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <f>SUM(G3:G9)/COUNT(G3:G9)</f>
         <v>58.454027664811449</v>
       </c>
@@ -13517,7 +13533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -13525,27 +13541,27 @@
       <c r="B10">
         <v>10.028062043175463</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f>SUM(B2:B10)/COUNT(B2:B10)</f>
         <v>10.02008051217576</v>
       </c>
       <c r="D10">
-        <f>ABS( C10-B10 )</f>
+        <f t="shared" si="0"/>
         <v>7.9815309997037787E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f>SUM(D3:D10)/COUNT(D3:D10)</f>
         <v>1.1412246389857383E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9769137496252824E-4</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.257712628346113</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <f>SUM(G3:G10)/COUNT(G3:G10)</f>
         <v>62.554488285253278</v>
       </c>
@@ -13553,8 +13569,11 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
+      <c r="Z10">
+        <v>10.001696699750951</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -13562,27 +13581,27 @@
       <c r="B11">
         <v>10.038763377577148</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f>SUM(B2:B11)/COUNT(B2:B11)</f>
         <v>10.021948798715901</v>
       </c>
       <c r="D11">
-        <f>ABS( C11-B11 )</f>
+        <f t="shared" si="0"/>
         <v>1.6814578861247043E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f>SUM(D3:D11)/COUNT(D3:D11)</f>
         <v>1.2012505553345123E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.8682865401409288E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84.447153578042119</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <f>SUM(G3:G11)/COUNT(G3:G11)</f>
         <v>64.987006651118705</v>
       </c>
@@ -13590,8 +13609,11 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
+      <c r="Z11" s="2">
+        <v>10.0170849987359</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -13599,27 +13621,27 @@
       <c r="B12">
         <v>10.037854147217793</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f>SUM(B2:B12)/COUNT(B2:B12)</f>
         <v>10.023394739488799</v>
       </c>
       <c r="D12">
-        <f>ABS( C12-B12 )</f>
+        <f t="shared" si="0"/>
         <v>1.4459407728994123E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <f>SUM(D3:D12)/COUNT(D3:D12)</f>
         <v>1.2257195770910024E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4459407728981688E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88.203331333502746</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <f>SUM(G3:G12)/COUNT(G3:G12)</f>
         <v>67.30863911935711</v>
       </c>
@@ -13627,8 +13649,11 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
+      <c r="Z12">
+        <v>10.016741442368909</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -13636,27 +13661,27 @@
       <c r="B13" s="3">
         <v>10.024864092134044</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <f>SUM(B2:B13)/COUNT(B2:B13)</f>
         <v>10.023517185542568</v>
       </c>
       <c r="D13" s="3">
-        <f>ABS( C13-B13 )</f>
+        <f t="shared" si="0"/>
         <v>1.3469065914755163E-3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <f>SUM(D3:D13)/COUNT(D3:D13)</f>
         <v>1.126535130005234E-2</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2244605376920958E-4</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="3"/>
+        <f>100-F13/E13*100</f>
         <v>98.913073809170598</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <f>SUM(G3:G13)/COUNT(G3:G13)</f>
         <v>70.181769545703787</v>
       </c>
@@ -13664,8 +13689,11 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
+      <c r="Z13">
+        <v>10.005779469394666</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -13673,27 +13701,27 @@
       <c r="B14">
         <v>10.028088514516881</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f>SUM(B2:B14)/COUNT(B2:B14)</f>
         <v>10.023868826232899</v>
       </c>
       <c r="D14">
-        <f>ABS( C14-B14 )</f>
+        <f t="shared" si="0"/>
         <v>4.2196882839817818E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <f>SUM(D3:D14)/COUNT(D3:D14)</f>
         <v>1.0678212715379795E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5164069033122303E-4</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.706933082305468</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <f>SUM(G3:G14)/COUNT(G3:G14)</f>
         <v>72.392199840420588</v>
       </c>
@@ -13701,8 +13729,11 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
+      <c r="Z14">
+        <v>10.031961797720967</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -13710,27 +13741,27 @@
       <c r="B15">
         <v>10.021608932734734</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f>SUM(B2:B15)/COUNT(B2:B15)</f>
         <v>10.023707405268743</v>
       </c>
       <c r="D15">
-        <f>ABS( C15-B15 )</f>
+        <f t="shared" si="0"/>
         <v>2.098472534008522E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <f>SUM(D3:D15)/COUNT(D3:D15)</f>
         <v>1.0018232701428157E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6142096415627805E-4</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.388728142307315</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <f>SUM(G3:G15)/COUNT(G3:G15)</f>
         <v>74.391932786719565</v>
       </c>
@@ -13738,8 +13769,11 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
+      <c r="Z15">
+        <v>10.025132432463733</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -13747,27 +13781,27 @@
       <c r="B16">
         <v>10.034571201007044</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f>SUM(B2:B16)/COUNT(B2:B16)</f>
         <v>10.024431658317964</v>
       </c>
       <c r="D16">
-        <f>ABS( C16-B16 )</f>
+        <f t="shared" si="0"/>
         <v>1.0139542689080017E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <f>SUM(D3:D16)/COUNT(D3:D16)</f>
         <v>1.0026897700546147E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.242530492206356E-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.776897991278133</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <f>SUM(G3:G16)/COUNT(G3:G16)</f>
         <v>75.705144587045183</v>
       </c>
@@ -13775,8 +13809,11 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
+      <c r="Z16">
+        <v>10.004903101432923</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -13784,27 +13821,27 @@
       <c r="B17">
         <v>10.002683558854731</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f>SUM(B2:B17)/COUNT(B2:B17)</f>
         <v>10.023072402101512</v>
       </c>
       <c r="D17">
-        <f>ABS( C17-B17 )</f>
+        <f t="shared" si="0"/>
         <v>2.0388843246781363E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <f>SUM(D3:D17)/COUNT(D3:D17)</f>
         <v>1.0717694070295162E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3592562164514987E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87.317643071947984</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <f>SUM(G3:G17)/COUNT(G3:G17)</f>
         <v>76.479311152705364</v>
       </c>
@@ -13812,8 +13849,11 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
+      <c r="Z17">
+        <v>10.049362624538325</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -13821,27 +13861,27 @@
       <c r="B18">
         <v>10.010724380283577</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f>SUM(B2:B18)/COUNT(B2:B18)</f>
         <v>10.022346047876928</v>
       </c>
       <c r="D18">
-        <f>ABS( C18-B18 )</f>
+        <f t="shared" si="0"/>
         <v>1.1621667593351148E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <f>SUM(D3:D18)/COUNT(D3:D18)</f>
         <v>1.0774192415486161E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.2635422458411369E-4</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.258388224623715</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <f>SUM(G3:G18)/COUNT(G3:G18)</f>
         <v>77.528003469700266</v>
       </c>
@@ -13849,8 +13889,11 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
+      <c r="Z18">
+        <v>10.028062043175463</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -13858,27 +13901,27 @@
       <c r="B19">
         <v>10.000004848876781</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f>SUM(B2:B19)/COUNT(B2:B19)</f>
         <v>10.021104870154698</v>
       </c>
       <c r="D19">
-        <f>ABS( C19-B19 )</f>
+        <f t="shared" si="0"/>
         <v>2.1100021277916881E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <f>SUM(D3:D19)/COUNT(D3:D19)</f>
         <v>1.1381594113276203E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2411777222300913E-3</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.094869225899529</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <f>SUM(G3:G19)/COUNT(G3:G19)</f>
         <v>78.208407337711989</v>
       </c>
@@ -13886,8 +13929,11 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
+      <c r="Z19">
+        <v>10.038763377577148</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -13895,27 +13941,27 @@
       <c r="B20">
         <v>10.044220975945754</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f>SUM(B2:B20)/COUNT(B2:B20)</f>
         <v>10.022321507301596</v>
       </c>
       <c r="D20">
-        <f>ABS( C20-B20 )</f>
+        <f t="shared" si="0"/>
         <v>2.1899468644157594E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <f>SUM(D3:D20)/COUNT(D3:D20)</f>
         <v>1.1965920476102947E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2166371468982362E-3</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89.832481760780766</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <f>SUM(G3:G20)/COUNT(G3:G20)</f>
         <v>78.85418925010471</v>
       </c>
@@ -13923,8 +13969,11 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
+      <c r="Z20">
+        <v>10.037854147217793</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -13932,27 +13981,27 @@
       <c r="B21">
         <v>10.013886934114234</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f>SUM(B2:B21)/COUNT(B2:B21)</f>
         <v>10.021899778642227</v>
       </c>
       <c r="D21">
-        <f>ABS( C21-B21 )</f>
+        <f t="shared" si="0"/>
         <v>8.0128445279932237E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <f>SUM(D3:D21)/COUNT(D3:D21)</f>
         <v>1.1757863847255067E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.2172865936862536E-4</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.413220421266573</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <f>SUM(G3:G21)/COUNT(G3:G21)</f>
         <v>79.778348785429017</v>
       </c>
@@ -13960,8 +14009,11 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="Z21" s="2">
+        <v>10.024864092134044</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -13969,27 +14021,27 @@
       <c r="B22">
         <v>10.036653000817221</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f>SUM(B2:B22)/COUNT(B2:B22)</f>
         <v>10.022602313031513</v>
       </c>
       <c r="D22">
-        <f>ABS( C22-B22 )</f>
+        <f t="shared" si="0"/>
         <v>1.4050687785708504E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <f>SUM(D3:D22)/COUNT(D3:D22)</f>
         <v>1.187250504417774E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.0253438928524758E-4</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94.082677693788227</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <f>SUM(G3:G22)/COUNT(G3:G22)</f>
         <v>80.493565230846968</v>
       </c>
@@ -13997,8 +14049,12 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="Z22">
+        <f>SUM(Z10:Z21)</f>
+        <v>120.28220622651082</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -14006,27 +14062,27 @@
       <c r="B23">
         <v>10.049845780735284</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f>SUM(B2:B23)/COUNT(B2:B23)</f>
         <v>10.023840652472593</v>
       </c>
       <c r="D23">
-        <f>ABS( C23-B23 )</f>
+        <f t="shared" si="0"/>
         <v>2.6005128262690747E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f>SUM(D3:D23)/COUNT(D3:D23)</f>
         <v>1.2545487102202168E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2383394410804272E-3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90.129203983932555</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <f>SUM(G3:G23)/COUNT(G3:G23)</f>
         <v>80.95240517147009</v>
       </c>
@@ -14035,7 +14091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -14043,27 +14099,27 @@
       <c r="B24" s="2">
         <v>10.014406997833918</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f>SUM(B2:B24)/COUNT(B2:B24)</f>
         <v>10.02343049357526</v>
       </c>
       <c r="D24">
-        <f>ABS( C24-B24 )</f>
+        <f t="shared" si="0"/>
         <v>9.0234957413422023E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <f>SUM(D3:D24)/COUNT(D3:D24)</f>
         <v>1.2385396585799442E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.1015889733309052E-4</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.688366864220072</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <f>SUM(G3:G24)/COUNT(G3:G24)</f>
         <v>81.667676157504175</v>
       </c>
@@ -14071,8 +14127,9 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
+      <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -14080,27 +14137,27 @@
       <c r="B25">
         <v>10.002887876215276</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f>SUM(B2:B25)/COUNT(B2:B25)</f>
         <v>10.022574551185262</v>
       </c>
       <c r="D25">
-        <f>ABS( C25-B25 )</f>
+        <f t="shared" si="0"/>
         <v>1.9686674969985773E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <f>SUM(D3:D25)/COUNT(D3:D25)</f>
         <v>1.2702843472068414E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.5594238999853189E-4</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93.261804792914148</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f>SUM(G3:G25)/COUNT(G3:G25)</f>
         <v>82.171768706869827</v>
       </c>
@@ -14109,7 +14166,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -14117,27 +14174,27 @@
       <c r="B26">
         <v>10.045652126727802</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f>SUM(B2:B26)/COUNT(B2:B26)</f>
         <v>10.023497654206963</v>
       </c>
       <c r="D26">
-        <f>ABS( C26-B26 )</f>
+        <f t="shared" si="0"/>
         <v>2.2154472520838908E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <f>SUM(D3:D26)/COUNT(D3:D26)</f>
         <v>1.3096661349100517E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.2310302170162117E-4</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.951615704982558</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <f>SUM(G3:G26)/COUNT(G3:G26)</f>
         <v>82.620928998457856</v>
       </c>
@@ -14145,8 +14202,11 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="Z26">
+        <v>7.694149492474267E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -14154,27 +14214,27 @@
       <c r="B27" s="3">
         <v>10.025605433479157</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <f>SUM(B2:B27)/COUNT(B2:B27)</f>
         <v>10.023578722640508</v>
       </c>
       <c r="D27" s="3">
-        <f>ABS( C27-B27 )</f>
+        <f t="shared" si="0"/>
         <v>2.0267108386491373E-3</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <f>SUM(D3:D27)/COUNT(D3:D27)</f>
         <v>1.2653863328682463E-2</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.1068433544828622E-5</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.359338476802805</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="4">
         <f>SUM(G3:G27)/COUNT(G3:G27)</f>
         <v>83.290465377591644</v>
       </c>
@@ -14182,8 +14242,11 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="Z27">
+        <v>4.9003954169890562E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -14191,27 +14254,27 @@
       <c r="B28">
         <v>10.049070643391691</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f>SUM(B2:B28)/COUNT(B2:B28)</f>
         <v>10.024522867853515</v>
       </c>
       <c r="D28">
-        <f>ABS( C28-B28 )</f>
+        <f t="shared" si="0"/>
         <v>2.4547775538175998E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <f>SUM(D3:D28)/COUNT(D3:D28)</f>
         <v>1.311132149058606E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.4414521300656418E-4</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92.799007989511495</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <f>SUM(G3:G28)/COUNT(G3:G28)</f>
         <v>83.656178554973181</v>
       </c>
@@ -14219,8 +14282,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
+      <c r="Z28">
+        <v>4.5461831679407538E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -14228,27 +14294,27 @@
       <c r="B29">
         <v>10.012317522694534</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f>SUM(B2:B29)/COUNT(B2:B29)</f>
         <v>10.024086962669267</v>
       </c>
       <c r="D29">
-        <f>ABS( C29-B29 )</f>
+        <f t="shared" si="0"/>
         <v>1.1769439974733231E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <f>SUM(D3:D29)/COUNT(D3:D29)</f>
         <v>1.3061622175184103E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3590518424707625E-4</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.662702546432129</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <f>SUM(G3:G29)/COUNT(G3:G29)</f>
         <v>84.13790166576797</v>
       </c>
@@ -14256,8 +14322,11 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
+      <c r="Z29">
+        <v>1.7308916126689056E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -14265,27 +14334,27 @@
       <c r="B30">
         <v>10.031135072474864</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f>SUM(B2:B30)/COUNT(B2:B30)</f>
         <v>10.024330000938425</v>
       </c>
       <c r="D30">
-        <f>ABS( C30-B30 )</f>
+        <f t="shared" si="0"/>
         <v>6.8050715364389447E-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <f>SUM(D3:D30)/COUNT(D3:D30)</f>
         <v>1.2838173938086062E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.4303826915783588E-4</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.106909360085609</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <f>SUM(G3:G30)/COUNT(G3:G30)</f>
         <v>84.636794797707879</v>
       </c>
@@ -14293,8 +14362,11 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="Z30">
+        <v>8.7329590578786309E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -14302,15 +14374,15 @@
       <c r="B31">
         <v>10.015239360674816</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <f>SUM(B2:B31)/COUNT(B2:B31)</f>
         <v>10.024026979596304</v>
       </c>
       <c r="D31">
-        <f>ABS( C31-B31 )</f>
+        <f t="shared" si="0"/>
         <v>8.7876189214881606E-3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <f>SUM(D3:D31)/COUNT(D3:D31)</f>
         <v>1.2698499627168892E-2</v>
       </c>
@@ -14322,7 +14394,7 @@
         <f>100-F31/E31*100</f>
         <v>97.613723266383033</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <f>SUM(G3:G31)/COUNT(G3:G31)</f>
         <v>85.084275089731165</v>
       </c>
@@ -14330,8 +14402,11 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="Z31">
+        <v>9.85403311965527E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -14339,36 +14414,39 @@
       <c r="B32">
         <v>10.02933993129996</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <f>SUM(B2:B32)/COUNT(B2:B32)</f>
         <v>10.024198365135131</v>
       </c>
       <c r="D32">
-        <f>ABS( C32-B32 )</f>
+        <f t="shared" si="0"/>
         <v>5.1415661648288591E-3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <f>SUM(D3:D32)/COUNT(D3:D32)</f>
         <v>1.2446601845090891E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:F41" si="4">ABS(C32-C31)</f>
+        <f t="shared" ref="F32:F41" si="5">ABS(C32-C31)</f>
         <v>1.71385538827451E-4</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G41" si="5">100-F32/E32*100</f>
+        <f t="shared" ref="G32:G41" si="6">100-F32/E32*100</f>
         <v>98.623033491707233</v>
       </c>
-      <c r="H32">
-        <f t="shared" ref="H32" si="6">SUM(G3:G32)/COUNT(G3:G32)</f>
+      <c r="H32" s="4">
+        <f t="shared" ref="H32" si="7">SUM(G3:G32)/COUNT(G3:G32)</f>
         <v>85.535567036463689</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
+      <c r="Z32">
+        <v>3.0279803737528255E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -14376,27 +14454,27 @@
       <c r="B33">
         <v>10.032318279897112</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <f>SUM(B2:B33)/COUNT(B2:B33)</f>
         <v>10.024452112471444</v>
       </c>
       <c r="D33">
-        <f>ABS( C33-B33 )</f>
+        <f t="shared" si="0"/>
         <v>7.8661674256679248E-3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <f>SUM(D3:D33)/COUNT(D3:D33)</f>
         <v>1.2298845896077248E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5374733631267077E-4</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97.936819938579731</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <f>SUM(G3:G33)/COUNT(G3:G33)</f>
         <v>85.935607452660989</v>
       </c>
@@ -14404,8 +14482,11 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
+      <c r="Z33">
+        <v>7.9815309997037787E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -14413,27 +14494,27 @@
       <c r="B34">
         <v>10.013622082169086</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <f>SUM(B2:B34)/COUNT(B2:B34)</f>
         <v>10.024123929735008</v>
       </c>
       <c r="D34">
-        <f>ABS( C34-B34 )</f>
+        <f t="shared" si="0"/>
         <v>1.0501847565922873E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <f>SUM(D3:D34)/COUNT(D3:D34)</f>
         <v>1.2242689698259923E-2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2818273643542284E-4</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97.31935755521053</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <f>SUM(G3:G34)/COUNT(G3:G34)</f>
         <v>86.291349643365663</v>
       </c>
@@ -14441,8 +14522,11 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
+      <c r="Z34" s="2">
+        <v>1.6814578861247043E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -14450,27 +14534,27 @@
       <c r="B35">
         <v>10.006724824613798</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <f>SUM(B2:B35)/COUNT(B2:B35)</f>
         <v>10.023612191349091</v>
       </c>
       <c r="D35">
-        <f>ABS( C35-B35 )</f>
+        <f t="shared" si="0"/>
         <v>1.6887366735293341E-2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <f>SUM(D3:D35)/COUNT(D3:D35)</f>
         <v>1.2383437487260935E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1173838591722642E-4</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.867557885735195</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <f>SUM(G3:G35)/COUNT(G3:G35)</f>
         <v>86.581537771922314</v>
       </c>
@@ -14478,8 +14562,11 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
+      <c r="Z35">
+        <v>1.4459407728994123E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -14487,27 +14574,27 @@
       <c r="B36">
         <v>10.031932040405117</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <f>SUM(B2:B36)/COUNT(B2:B36)</f>
         <v>10.023849901322121</v>
       </c>
       <c r="D36">
-        <f>ABS( C36-B36 )</f>
+        <f t="shared" si="0"/>
         <v>8.0821390829957096E-3</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <f>SUM(D3:D36)/COUNT(D3:D36)</f>
         <v>1.22569287106649E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3770997302996477E-4</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98.060607362241328</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <f>SUM(G3:G36)/COUNT(G3:G36)</f>
         <v>86.91915746575522</v>
       </c>
@@ -14515,8 +14602,11 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
+      <c r="Z36">
+        <v>1.3469065914755163E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -14524,27 +14614,27 @@
       <c r="B37">
         <v>10.005152034344174</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <f>SUM(B2:B37)/COUNT(B2:B37)</f>
         <v>10.02333051612829</v>
       </c>
       <c r="D37">
-        <f>ABS( C37-B37 )</f>
+        <f t="shared" si="0"/>
         <v>1.8178481784115519E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <f>SUM(D3:D37)/COUNT(D3:D37)</f>
         <v>1.2426115941334918E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1938519383121218E-4</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95.820212878398308</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <f>SUM(G3:G37)/COUNT(G3:G37)</f>
         <v>87.173473334687884</v>
       </c>
@@ -14552,8 +14642,12 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
+      <c r="Z37">
+        <f>SUM(Z26:Z36)</f>
+        <v>0.12391886430057575</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -14561,27 +14655,27 @@
       <c r="B38">
         <v>10.025899511156442</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <f>SUM(B2:B38)/COUNT(B2:B38)</f>
         <v>10.023399948426349</v>
       </c>
       <c r="D38">
-        <f>ABS( C38-B38 )</f>
+        <f t="shared" si="0"/>
         <v>2.499562730093885E-3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <f>SUM(D3:D38)/COUNT(D3:D38)</f>
         <v>1.2150378352133777E-2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9432298058558217E-5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.428558551459716</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="4">
         <f>SUM(G3:G38)/COUNT(G3:G38)</f>
         <v>87.513892368487106</v>
       </c>
@@ -14590,7 +14684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -14598,27 +14692,27 @@
       <c r="B39">
         <v>10.018578260733939</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <f>SUM(B2:B39)/COUNT(B2:B39)</f>
         <v>10.023273061908126</v>
       </c>
       <c r="D39">
-        <f>ABS( C39-B39 )</f>
+        <f t="shared" si="0"/>
         <v>4.6948011741871909E-3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <f>SUM(D3:D39)/COUNT(D3:D39)</f>
         <v>1.194887626624333E-2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2688651822223562E-4</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98.938088273784359</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <f>SUM(G3:G39)/COUNT(G3:G39)</f>
         <v>87.822654419981617</v>
       </c>
@@ -14626,8 +14720,11 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -14635,27 +14732,27 @@
       <c r="B40">
         <v>10.035823393254852</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <f>SUM(B2:B40)/COUNT(B2:B40)</f>
         <v>10.023594865275992</v>
       </c>
       <c r="D40">
-        <f>ABS( C40-B40 )</f>
+        <f t="shared" si="0"/>
         <v>1.2228527978859205E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <f>SUM(D3:D40)/COUNT(D3:D40)</f>
         <v>1.1956235521838485E-2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2180336786602481E-4</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97.308489220723033</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <f>SUM(G3:G40)/COUNT(G3:G40)</f>
         <v>88.07228165158007</v>
       </c>
@@ -14663,8 +14760,11 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
+      <c r="Z40">
+        <v>61.091127530086588</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -14672,33 +14772,82 @@
       <c r="B41">
         <v>10.049857308592008</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <f>SUM(B2:B41)/COUNT(B2:B41)</f>
         <v>10.024251426358891</v>
       </c>
       <c r="D41">
-        <f>ABS( C41-B41 )</f>
+        <f t="shared" si="0"/>
         <v>2.5605882233117327E-2</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="6">
         <f>SUM(D3:D41)/COUNT(D3:D41)</f>
         <v>1.2306226463153326E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5656108289857684E-4</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94.66480578051754</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="4">
         <f>SUM(G3:G41)/COUNT(G3:G41)</f>
         <v>88.241320731809239</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
         <v>88</v>
+      </c>
+      <c r="Z41">
+        <v>73.47730418794869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>49.755892908087795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>79.776673015976414</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>81.420327924354453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>63.656868087226187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>91.257712628346113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>84.447153578042119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>88.203331333502746</v>
+      </c>
+    </row>
+    <row r="49" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>98.913073809170598</v>
+      </c>
+    </row>
+    <row r="50" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <f>SUM(Z39:Z49)</f>
+        <v>771.99946500274166</v>
       </c>
     </row>
   </sheetData>
@@ -14713,15 +14862,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -14731,13 +14882,13 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -14746,7 +14897,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
@@ -14760,590 +14911,590 @@
       <c r="B2">
         <v>10.023517185542568</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>10.023517185542568</v>
       </c>
       <c r="D2">
         <v>1.126535130005234E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>1.126535130005234E-2</v>
       </c>
       <c r="G2">
         <v>70.181769545703787</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>70.181769545703787</v>
       </c>
       <c r="I2">
-        <f>ROUND(H2,0)</f>
+        <f t="shared" ref="I2:I25" si="0">ROUND(H2,0)</f>
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>10.028088514516881</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <f>SUM(B2:B3)/COUNT(B2:B3)</f>
         <v>10.025802850029724</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <f>ABS( C3-B3 )</f>
         <v>2.2856644871573906E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="10">
         <f>SUM(D2:D3)/COUNT(D2:D3)</f>
         <v>6.7755078936048655E-3</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F30" si="0">ABS(C3-C2)</f>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F30" si="1">ABS(C3-C2)</f>
         <v>2.2856644871556142E-3</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G30" si="1">100-F3/E3*100</f>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G30" si="2">100-F3/E3*100</f>
         <v>66.265783716185126</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="11">
         <f>SUM(G2:G3)/COUNT(G2:G3)</f>
         <v>68.223776630944457</v>
       </c>
       <c r="I3">
-        <f>ROUND(H3,0)</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A41" si="2">A3+1</f>
+        <f t="shared" ref="A4:A30" si="3">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
         <v>10.021608932734734</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f>SUM(B2:B4)/COUNT(B2:B4)</f>
         <v>10.024404877598061</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D30" si="3">ABS( C4-B4 )</f>
+        <f t="shared" ref="D4:D30" si="4">ABS( C4-B4 )</f>
         <v>2.7959448633261275E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f>SUM(D2:D4)/COUNT(D2:D4)</f>
         <v>5.4489868835119531E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3979724316630637E-3</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.344360492164554</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <f>SUM(G2:G4)/COUNT(G2:G4)</f>
         <v>70.263971251351151</v>
       </c>
       <c r="I4">
-        <f>ROUND(H4,0)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B5">
         <v>10.034571201007044</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f>SUM(B2:B5)/COUNT(B2:B5)</f>
         <v>10.026946458450308</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.6247425567359528E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f>SUM(D2:D5)/COUNT(D2:D5)</f>
         <v>5.9929258018179528E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.541580852247094E-3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.590316711812015</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <f>SUM(G2:G5)/COUNT(G2:G5)</f>
         <v>67.095557616466365</v>
       </c>
       <c r="I5">
-        <f>ROUND(H5,0)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6">
         <v>10.002683558854731</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f>SUM(B2:B6)/COUNT(B2:B6)</f>
         <v>10.022093878531191</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9410319676460119E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <f>SUM(D2:D6)/COUNT(D2:D6)</f>
         <v>8.6764045767463854E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8525799191168062E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.071534744677585</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <f>SUM(G2:G6)/COUNT(G2:G6)</f>
         <v>62.490753042108608</v>
       </c>
       <c r="I6">
-        <f>ROUND(H6,0)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7">
         <v>10.010724380283577</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f>SUM(B2:B7)/COUNT(B2:B7)</f>
         <v>10.02019896215659</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4745818730128661E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <f>SUM(D2:D7)/COUNT(D2:D7)</f>
         <v>8.8094341261241316E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8949163746011521E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78.489919471878096</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <f>SUM(G2:G7)/COUNT(G2:G7)</f>
         <v>65.157280780403525</v>
       </c>
       <c r="I7">
-        <f>ROUND(H7,0)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8">
         <v>10.000004848876781</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f>SUM(B2:B8)/COUNT(B2:B8)</f>
         <v>10.017314088830902</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.730923995412148E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <f>SUM(D2:D8)/COUNT(D2:D8)</f>
         <v>1.0023692101552325E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8848733256872094E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.219453905208823</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <f>SUM(G2:G8)/COUNT(G2:G8)</f>
         <v>66.023305512518561</v>
       </c>
       <c r="I8">
-        <f>ROUND(H8,0)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9">
         <v>10.044220975945754</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f>SUM(B2:B9)/COUNT(B2:B9)</f>
         <v>10.020677449720258</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.354352622549527E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f>SUM(D2:D9)/COUNT(D2:D9)</f>
         <v>1.1713671367045193E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3633608893559597E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.286876812864037</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <f>SUM(G2:G9)/COUNT(G2:G9)</f>
         <v>66.681251925061744</v>
       </c>
       <c r="I9">
-        <f>ROUND(H9,0)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10">
         <v>10.013886934114234</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f>SUM(B2:B10)/COUNT(B2:B10)</f>
         <v>10.019922947986256</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0360138720216838E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f>SUM(D2:D10)/COUNT(D2:D10)</f>
         <v>1.1082820534264803E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5450173400248843E-4</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93.192150575119456</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <f>SUM(G2:G10)/COUNT(G2:G10)</f>
         <v>69.626907330623709</v>
       </c>
       <c r="I10">
-        <f>ROUND(H10,0)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11">
         <v>10.036653000817221</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f>SUM(B2:B11)/COUNT(B2:B11)</f>
         <v>10.021595953269353</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5057047547868407E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f>SUM(D2:D11)/COUNT(D2:D11)</f>
         <v>1.1480243235625163E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6730052830968845E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.42709201574003</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>71.206925799135348</v>
       </c>
       <c r="I11">
-        <f>ROUND(H11,0)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12">
         <v>10.049845780735284</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f>SUM(B2:B12)/COUNT(B2:B12)</f>
         <v>10.02416411940262</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5681661332663808E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="6">
         <f>SUM(D2:D12)/COUNT(D2:D12)</f>
         <v>1.2771281244446859E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5681661332672689E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79.891084660092773</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <f>SUM(G2:G12)/COUNT(G2:G12)</f>
         <v>71.996394786495117</v>
       </c>
       <c r="I12">
-        <f>ROUND(H12,0)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <f t="shared" si="2"/>
+      <c r="A13" s="7">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>10.014406997833918</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <f>SUM(B2:B13)/COUNT(B2:B13)</f>
         <v>10.023351025938561</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
+      <c r="D13" s="8">
+        <f t="shared" si="4"/>
         <v>8.9440281046435643E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <f>SUM(D2:D13)/COUNT(D2:D13)</f>
         <v>1.2452343482796585E-2</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
         <v>8.1309346405866734E-4</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
         <v>93.470357887396943</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="11">
         <f>SUM(G2:G13)/COUNT(G2:G13)</f>
         <v>73.785891711570272</v>
       </c>
       <c r="I13">
-        <f>ROUND(H13,0)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14">
         <v>10.002887876215276</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f>SUM(B2:B14)/COUNT(B2:B14)</f>
         <v>10.021776937498307</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8889061283031694E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <f>SUM(D2:D14)/COUNT(D2:D14)</f>
         <v>1.2947475621276209E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5740884402539734E-3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.842507016060182</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <f>SUM(G2:G14)/COUNT(G2:G14)</f>
         <v>74.867169811915645</v>
       </c>
       <c r="I14">
-        <f>ROUND(H14,0)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15">
         <v>10.045652126727802</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f>SUM(B2:B15)/COUNT(B2:B15)</f>
         <v>10.023482308157558</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.216981857024436E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <f>SUM(D2:D15)/COUNT(D2:D15)</f>
         <v>1.3606214403345362E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7053706592502493E-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.466237053923322</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <f>SUM(G2:G15)/COUNT(G2:G15)</f>
         <v>75.767103186344769</v>
       </c>
       <c r="I15">
-        <f>ROUND(H15,0)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>10.025605433479157</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f>SUM(B2:B16)/COUNT(B2:B16)</f>
         <v>10.023623849845665</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9815836334924342E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <f>SUM(D2:D16)/COUNT(D2:D16)</f>
         <v>1.28312390186885E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4154168810698309E-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.896897736057838</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <f>SUM(G2:G16)/COUNT(G2:G16)</f>
         <v>77.309089489658973</v>
       </c>
       <c r="I16">
-        <f>ROUND(H16,0)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17">
         <v>10.049070643391691</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f>SUM(B2:B17)/COUNT(B2:B17)</f>
         <v>10.025214274442291</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3856368949399354E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <f>SUM(D2:D17)/COUNT(D2:D17)</f>
         <v>1.3520309639357929E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5904245966265051E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.236773867983445</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <f>SUM(G2:G17)/COUNT(G2:G17)</f>
         <v>77.992069763304244</v>
       </c>
       <c r="I17">
-        <f>ROUND(H17,0)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18">
         <v>10.012317522694534</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f>SUM(B2:B18)/COUNT(B2:B18)</f>
         <v>10.02445564198654</v>
       </c>
@@ -15351,406 +15502,406 @@
         <f>ABS( C18-B18 )</f>
         <v>1.2138119292005811E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <f>SUM(D2:D18)/COUNT(D2:D18)</f>
         <v>1.3439004324807805E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5863245575114036E-4</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94.354995076899129</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="4">
         <f>SUM(G2:G18)/COUNT(G2:G18)</f>
         <v>78.954594781750998</v>
       </c>
       <c r="I18">
-        <f>ROUND(H18,0)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19">
         <v>10.031135072474864</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f>SUM(B2:B19)/COUNT(B2:B19)</f>
         <v>10.024826721458114</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3083510167505352E-3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <f>SUM(D2:D19)/COUNT(D2:D19)</f>
         <v>1.3042856918804623E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7107947157366539E-4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97.154921855819339</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <f>SUM(G2:G19)/COUNT(G2:G19)</f>
         <v>79.965724063643677</v>
       </c>
       <c r="I19">
-        <f>ROUND(H19,0)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20">
         <v>10.015239360674816</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f>SUM(B2:B20)/COUNT(B2:B20)</f>
         <v>10.02432212352215</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0827628473348909E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <f>SUM(D2:D20)/COUNT(D2:D20)</f>
         <v>1.2834430915043058E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0459793596324687E-4</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.068404284510862</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <f>SUM(G2:G20)/COUNT(G2:G20)</f>
         <v>80.813233548952482</v>
       </c>
       <c r="I20">
-        <f>ROUND(H20,0)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21">
         <v>10.02933993129996</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f>SUM(B2:B21)/COUNT(B2:B21)</f>
         <v>10.024573013911041</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7669173889186567E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <f>SUM(D2:D21)/COUNT(D2:D21)</f>
         <v>1.2431055238736837E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5089038889092308E-4</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97.981745040363791</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <f>SUM(G2:G21)/COUNT(G2:G21)</f>
         <v>81.671659123523057</v>
       </c>
       <c r="I21">
-        <f>ROUND(H21,0)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22">
         <v>10.032318279897112</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f>SUM(B2:B22)/COUNT(B2:B22)</f>
         <v>10.024941836100854</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3764437962573481E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <f>SUM(D2:D22)/COUNT(D2:D22)</f>
         <v>1.2190359455761624E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6882218981304504E-4</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.974476502095882</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <f>SUM(G2:G22)/COUNT(G2:G22)</f>
         <v>82.400364712978913</v>
       </c>
       <c r="I22">
-        <f>ROUND(H22,0)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23">
         <v>10.013622082169086</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f>SUM(B2:B23)/COUNT(B2:B23)</f>
         <v>10.02442730183123</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0805219662143983E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f>SUM(D2:D23)/COUNT(D2:D23)</f>
         <v>1.2127398556051732E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1453426962488891E-4</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95.757257690124078</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <f>SUM(G2:G23)/COUNT(G2:G23)</f>
         <v>83.007496211940051</v>
       </c>
       <c r="I23">
-        <f>ROUND(H23,0)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="2"/>
+      <c r="A24" s="8">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>10.006724824613798</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="9">
         <f>SUM(B2:B24)/COUNT(B2:B24)</f>
         <v>10.023657628908733</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
+      <c r="D24" s="8">
+        <f t="shared" si="4"/>
         <v>1.6932804294935266E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <f>SUM(D2:D24)/COUNT(D2:D24)</f>
         <v>1.2336329240351015E-2</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
         <v>7.6967292249641162E-4</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
+      <c r="G24" s="8">
+        <f t="shared" si="2"/>
         <v>93.760924279007725</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="11">
         <f>SUM(G2:G24)/COUNT(G2:G24)</f>
         <v>83.475036562682121</v>
       </c>
       <c r="I24">
-        <f>ROUND(H24,0)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25">
         <v>10.031932040405117</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f>SUM(B2:B25)/COUNT(B2:B25)</f>
         <v>10.024002396054415</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9296443507015368E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <f>SUM(D2:D25)/COUNT(D2:D25)</f>
         <v>1.2152717369948954E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4476714568221212E-4</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97.163044813872276</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f>SUM(G2:G25)/COUNT(G2:G25)</f>
         <v>84.045370239815057</v>
       </c>
       <c r="I25">
-        <f>ROUND(H25,0)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26">
         <v>10.005152034344174</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f>SUM(B2:B26)/COUNT(B2:B26)</f>
         <v>10.023248381586006</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8096347241831623E-2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="6">
         <f>SUM(D2:D26)/COUNT(D2:D26)</f>
         <v>1.239046256482426E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5401446840928088E-4</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93.914557552113664</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <f>SUM(G2:G26)/COUNT(G2:G26)</f>
         <v>84.440137732306994</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I30" si="4">ROUND(H26,0)</f>
+        <f t="shared" ref="I26:I30" si="5">ROUND(H26,0)</f>
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27">
         <v>10.025899511156442</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <f>SUM(B2:B27)/COUNT(B2:B27)</f>
         <v>10.023350348107945</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5491630484975047E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <f>SUM(D2:D27)/COUNT(D2:D27)</f>
         <v>1.201195104496554E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0196652193883438E-4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.151124396385455</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <f>SUM(G2:G27)/COUNT(G2:G27)</f>
         <v>85.005944911694627</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28">
         <v>10.018578260733939</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f>SUM(B2:B28)/COUNT(B2:B28)</f>
         <v>10.023173604131129</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5953433971899216E-3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <f>SUM(D2:D28)/COUNT(D2:D28)</f>
         <v>1.1737261872825701E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7674397681588516E-4</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.494163470740261</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <f>SUM(G2:G28)/COUNT(G2:G28)</f>
         <v>85.505508562029647</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29">
         <v>10.035823393254852</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f>SUM(B2:B29)/COUNT(B2:B29)</f>
         <v>10.023625382314121</v>
       </c>
@@ -15758,66 +15909,67 @@
         <f>ABS( C29-B29 )</f>
         <v>1.2198010940730697E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <f>SUM(D2:D29)/COUNT(D2:D29)</f>
         <v>1.1753717196679451E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5177818299180217E-4</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96.156295277212948</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <f>SUM(G2:G29)/COUNT(G2:G29)</f>
         <v>85.88589380185762</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="2"/>
+      <c r="A30" s="8">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>10.049857308592008</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="9">
         <f>SUM(B2:B30)/COUNT(B2:B30)</f>
         <v>10.024529931496115</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="3"/>
+      <c r="D30" s="8">
+        <f t="shared" si="4"/>
         <v>2.5327377095893056E-2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="10">
         <f>SUM(D2:D30)/COUNT(D2:D30)</f>
         <v>1.2221774434583369E-2</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
+      <c r="F30" s="8">
+        <f t="shared" si="1"/>
         <v>9.0454918199434076E-4</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
+      <c r="G30" s="8">
+        <f t="shared" si="2"/>
         <v>92.59887190001821</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="11">
         <f>SUM(G2:G30)/COUNT(G2:G30)</f>
         <v>86.117375805242474</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>